--- a/import_students_default_v1.xlsx
+++ b/import_students_default_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/TSMART/SeverLearing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A809466-29F0-7146-9535-1818A2184F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8331B812-7DEB-954D-BA94-EA7B80E791F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="3600" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,13 @@
     <t>NGÀY HỌC/TUẦN</t>
   </si>
   <si>
-    <t xml:space="preserve">PHAN NHƯ Ý </t>
-  </si>
-  <si>
     <t>3,7</t>
   </si>
   <si>
     <t>0377723412</t>
+  </si>
+  <si>
+    <t>Phạm Xuân Đạt</t>
   </si>
 </sst>
 </file>
@@ -102,9 +102,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -115,6 +112,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,57 +457,57 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24" style="7" customWidth="1"/>
-    <col min="5" max="5" width="61.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24" style="6" customWidth="1"/>
+    <col min="5" max="5" width="61.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -515,17 +515,17 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
